--- a/examples/bot_settings.xlsx
+++ b/examples/bot_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vlad/PycharmProjects/report-generator/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65880DC1-7148-B440-9F2B-D8E44471C822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67671D6-FC07-2540-9EF4-F4F3128557BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>fio</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Часовая ставка администраторов</t>
-  </si>
-  <si>
-    <t>Часовая ставка тренеров</t>
   </si>
   <si>
     <t>Реквизиты заказчика</t>
@@ -553,9 +550,9 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -630,25 +627,25 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>13</v>
@@ -683,25 +680,25 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>18</v>
@@ -736,25 +733,25 @@
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
@@ -767,7 +764,7 @@
         <v>19</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -787,25 +784,25 @@
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>23</v>
@@ -29701,6 +29698,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -29712,7 +29710,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29736,20 +29734,18 @@
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -29762,17 +29758,15 @@
       <c r="C2" s="1">
         <v>200</v>
       </c>
-      <c r="D2" s="1">
-        <v>800</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3">
         <v>999999</v>
@@ -29780,7 +29774,7 @@
     </row>
     <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="G3" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13" x14ac:dyDescent="0.15">

--- a/examples/bot_settings.xlsx
+++ b/examples/bot_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vlad/PycharmProjects/report-generator/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67671D6-FC07-2540-9EF4-F4F3128557BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9085E0-B0AE-C64D-A165-828BF5919044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29707,10 +29707,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29718,13 +29718,12 @@
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -29734,21 +29733,20 @@
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>45423</v>
       </c>
@@ -29758,26 +29756,25 @@
       <c r="C2" s="1">
         <v>200</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="3">
+      <c r="G2" s="3">
         <v>999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="G3" s="13" t="s">
+    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="F3" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="C8" s="14"/>
     </row>
   </sheetData>
